--- a/mo/lab_4/Abakirov_MO_LabWork#4_ПИ-1-15_2017.09.01.xlsx
+++ b/mo/lab_4/Abakirov_MO_LabWork#4_ПИ-1-15_2017.09.01.xlsx
@@ -380,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K34" authorId="0" shapeId="0">
+    <comment ref="K45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,9 +805,6 @@
     <t>List of sigma</t>
   </si>
   <si>
-    <t>Вывод: Метод равномерного поиска  имеет линейную скорость сходимости потому, что  ряд {abs(X*-Xk+1)/abs(X*-Xk)^sigma} сходится к значению А=0,999999945010055 только при sigma=1.</t>
-  </si>
-  <si>
     <r>
       <t>abs((A</t>
     </r>
@@ -1038,6 +1035,9 @@
   <si>
     <t>Турдахунов Эрзат Кубатбекович</t>
   </si>
+  <si>
+    <t>Вывод: Метод равномерного поиска  имеет линейную скорость сходимости потому, что  ряд {abs(X*-Xk+1)/abs(X*-Xk)^sigma} сходится к значению А=0.997996207842201 только при sigma=1.</t>
+  </si>
 </sst>
 </file>
 
@@ -1153,12 +1153,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="8"/>
       <name val="Arial Cyr"/>
@@ -1169,6 +1163,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1203,7 +1203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1619,24 +1619,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1666,11 +1648,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1889,14 +1884,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1910,40 +1905,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,28 +1927,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="41"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2135,10 +2099,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$H$12:$H$15</c:f>
+              <c:f>sheet5!$H$12:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000000.000000002</c:v>
                 </c:pt>
@@ -2151,15 +2115,18 @@
                 <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$12:$G$15</c:f>
+              <c:f>sheet5!$G$12:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2171,6 +2138,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,10 +2184,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$H$12:$H$15</c:f>
+              <c:f>sheet5!$H$12:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000000.000000002</c:v>
                 </c:pt>
@@ -2230,15 +2200,18 @@
                 <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$16:$G$19</c:f>
+              <c:f>sheet5!$G$17:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2250,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,10 +2269,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$H$12:$H$15</c:f>
+              <c:f>sheet5!$H$12:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000000.000000002</c:v>
                 </c:pt>
@@ -2309,15 +2285,18 @@
                 <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$20:$G$23</c:f>
+              <c:f>sheet5!$G$22:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2329,6 +2308,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,10 +2354,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$H$12:$H$15</c:f>
+              <c:f>sheet5!$H$12:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000000.000000002</c:v>
                 </c:pt>
@@ -2388,15 +2370,18 @@
                 <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$24:$G$27</c:f>
+              <c:f>sheet5!$G$27:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2408,6 +2393,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,10 +2439,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$H$12:$H$15</c:f>
+              <c:f>sheet5!$H$12:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000000.000000002</c:v>
                 </c:pt>
@@ -2467,15 +2455,18 @@
                 <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$28:$G$31</c:f>
+              <c:f>sheet5!$G$32:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2487,6 +2478,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,7 +2591,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2627,7 +2621,7 @@
         <c:axId val="381616376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000"/>
+          <c:max val="70000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2931,7 +2925,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$I$35:$I$39</c:f>
+              <c:f>sheet5!$I$46:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2955,7 +2949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$35:$G$39</c:f>
+              <c:f>sheet5!$G$46:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3016,7 +3010,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$I$35:$I$39</c:f>
+              <c:f>sheet5!$I$46:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3040,7 +3034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$40:$G$44</c:f>
+              <c:f>sheet5!$G$51:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3101,7 +3095,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$I$35:$I$39</c:f>
+              <c:f>sheet5!$I$46:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3125,7 +3119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$45:$G$49</c:f>
+              <c:f>sheet5!$G$56:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3186,7 +3180,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>sheet5!$I$35:$I$39</c:f>
+              <c:f>sheet5!$I$46:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3210,7 +3204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheet5!$G$50:$G$54</c:f>
+              <c:f>sheet5!$G$61:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3236,6 +3230,67 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E995-4B2C-B07D-9D17B3C1281F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>T=1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>sheet5!$G$66:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19DE-447B-9A3B-0F1C1A9020AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3338,7 +3393,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3368,7 +3423,7 @@
         <c:axId val="388243272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000"/>
+          <c:max val="70000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4650,7 +4705,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="16" fmlaLink="I5" fmlaRange="sheet5!$K$12:$K$19" sel="4" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="16" fmlaLink="I5" fmlaRange="sheet5!$K$12:$K$19" sel="8" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4662,7 +4717,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="16" fmlaLink="I5" fmlaRange="$K$12:$K$22" sel="4" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="16" fmlaLink="I5" fmlaRange="$K$12:$K$22" sel="8" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4986,13 +5041,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5327,7 +5382,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5347,12 +5402,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -5360,31 +5415,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="D3" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="E3" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="F3" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="G3" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="91" t="s">
+      <c r="J3" s="91" t="s">
         <v>61</v>
-      </c>
-      <c r="J3" s="91" t="s">
-        <v>62</v>
       </c>
       <c r="K3" s="92" t="s">
         <v>38</v>
@@ -5413,7 +5468,7 @@
         <v>400000</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="82">
         <f>2*E4*D4/(2*E4-1)</f>
@@ -5451,7 +5506,7 @@
         <v>2640000000</v>
       </c>
       <c r="H5" s="93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="95">
         <f t="shared" ref="I5:I67" si="1">2*E5*D5/(2*E5-1)</f>
@@ -5489,7 +5544,7 @@
         <v>2660000000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="86">
         <f t="shared" si="1"/>
@@ -5527,7 +5582,7 @@
         <v>2680000000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="86">
         <f t="shared" si="1"/>
@@ -5565,7 +5620,7 @@
         <v>2700000000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="86">
         <f t="shared" si="1"/>
@@ -5603,7 +5658,7 @@
         <v>2720000000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="86">
         <f t="shared" si="1"/>
@@ -5641,7 +5696,7 @@
         <v>2740000000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="86">
         <f t="shared" si="1"/>
@@ -5679,7 +5734,7 @@
         <v>2760000000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="1"/>
@@ -5717,7 +5772,7 @@
         <v>2780000000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="86">
         <f t="shared" si="1"/>
@@ -5755,7 +5810,7 @@
         <v>2800000000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="86">
         <f t="shared" si="1"/>
@@ -5793,7 +5848,7 @@
         <v>2820000000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="86">
         <f t="shared" si="1"/>
@@ -5808,7 +5863,7 @@
         <v>5.9453031349840186E+49</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -5834,7 +5889,7 @@
         <v>2840000000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="86">
         <f t="shared" si="1"/>
@@ -5872,7 +5927,7 @@
         <v>2860000000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="86">
         <f t="shared" si="1"/>
@@ -55861,7 +55916,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A6:F1555">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$G6&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55874,10 +55929,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55894,35 +55949,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="111"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="106"/>
       <c r="L1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="112"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:12" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
@@ -55944,16 +55999,16 @@
         <v>49</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="64" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="77" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -55962,11 +56017,11 @@
       </c>
       <c r="B4" s="60">
         <f ca="1">IF(A4=sheet4!$A$7,sheet4!$B$7,B4)</f>
-        <v>228000000</v>
+        <v>218001000</v>
       </c>
       <c r="C4" s="60">
         <f ca="1">ABS($F$4-B4)</f>
-        <v>9461946.2452939153</v>
+        <v>537053.75470608473</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="74">
@@ -55979,18 +56034,18 @@
       </c>
       <c r="G4" s="66">
         <f ca="1">ABS((D43-D42)/D43)</f>
-        <v>6.5971499653561677E-4</v>
+        <v>4.0151991333246849E-6</v>
       </c>
       <c r="H4" s="67">
         <v>1</v>
       </c>
       <c r="I4" s="68">
         <f ca="1">IF($E$4=H4,$G$4,I4)</f>
-        <v>6.5971499653561677E-4</v>
+        <v>4.0151991333246849E-6</v>
       </c>
       <c r="J4" s="69">
         <f ca="1">MIN(I4:I24)</f>
-        <v>6.5971499653561677E-4</v>
+        <v>4.0151991333246849E-6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -55999,22 +56054,22 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">IF(A5=sheet4!$A$7,sheet4!$B$7,B5)</f>
-        <v>238000000</v>
+        <v>218002000</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C43" ca="1" si="0">ABS($F$4-B5)</f>
-        <v>19461946.245293915</v>
+        <v>536053.75470608473</v>
       </c>
       <c r="D5" s="70">
         <f ca="1">C5/C4^$E$4</f>
-        <v>2.0568650191786597</v>
+        <v>0.99813798899786621</v>
       </c>
       <c r="H5" s="71">
         <v>1.05</v>
       </c>
       <c r="I5" s="70">
         <f t="shared" ref="I5:I24" ca="1" si="1">IF($E$4=H5,$G$4,I5)</f>
-        <v>1.962011868828007E-3</v>
+        <v>9.6069556158416566E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -56023,22 +56078,22 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">IF(A6=sheet4!$A$7,sheet4!$B$7,B6)</f>
-        <v>248000000</v>
+        <v>218003000</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29461946.245293915</v>
+        <v>535053.75470608473</v>
       </c>
       <c r="D6" s="70">
         <f t="shared" ref="D6:D43" ca="1" si="2">C6/C5^$E$4</f>
-        <v>1.5138232257947015</v>
+        <v>0.99813451544510068</v>
       </c>
       <c r="H6" s="71">
         <v>1.1000000000000001</v>
       </c>
       <c r="I6" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2660036001382689E-3</v>
+        <v>1.9614429453408054E-4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -56047,22 +56102,22 @@
       </c>
       <c r="B7" s="1">
         <f ca="1">IF(A7=sheet4!$A$7,sheet4!$B$7,B7)</f>
-        <v>258000000</v>
+        <v>218004000</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39461946.245293915</v>
+        <v>534053.75470608473</v>
       </c>
       <c r="D7" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3394208894667758</v>
+        <v>0.99813102890839567</v>
       </c>
       <c r="H7" s="71">
         <v>1.1499999999999999</v>
       </c>
       <c r="I7" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5716923962187458E-3</v>
+        <v>5.7247940038884478E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -56071,22 +56126,22 @@
       </c>
       <c r="B8" s="1">
         <f ca="1">IF(A8=sheet4!$A$7,sheet4!$B$7,B8)</f>
-        <v>268000000</v>
+        <v>218005000</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49461946.245293915</v>
+        <v>533053.75470608473</v>
       </c>
       <c r="D8" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.253408687393176</v>
+        <v>0.99812752931481519</v>
       </c>
       <c r="H8" s="71">
         <v>1.2</v>
       </c>
       <c r="I8" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8790804657056911E-3</v>
+        <v>7.3151962034787446E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -56095,22 +56150,22 @@
       </c>
       <c r="B9" s="1">
         <f ca="1">IF(A9=sheet4!$A$7,sheet4!$B$7,B9)</f>
-        <v>278000000</v>
+        <v>218006000</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59461946.245293915</v>
+        <v>532053.75470608473</v>
       </c>
       <c r="D9" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2021756271054833</v>
+        <v>0.9981240165908758</v>
       </c>
       <c r="H9" s="71">
         <v>1.25</v>
       </c>
       <c r="I9" s="70">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1881700200877932E-3</v>
+        <v>8.9081133844789821E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -56119,15 +56174,15 @@
       </c>
       <c r="B10" s="1">
         <f ca="1">IF(A10=sheet4!$A$7,sheet4!$B$7,B10)</f>
-        <v>288000000</v>
+        <v>218007000</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69461946.245293915</v>
+        <v>531053.75470608473</v>
       </c>
       <c r="D10" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1681747845714257</v>
+        <v>0.99812049066254138</v>
       </c>
       <c r="H10" s="71">
         <v>1.3</v>
@@ -56143,15 +56198,15 @@
       </c>
       <c r="B11" s="1">
         <f ca="1">IF(A11=sheet4!$A$7,sheet4!$B$7,B11)</f>
-        <v>298000000</v>
+        <v>218008000</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79461946.245293915</v>
+        <v>530053.75470608473</v>
       </c>
       <c r="D11" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1439637174099122</v>
+        <v>0.99811695145521862</v>
       </c>
       <c r="H11" s="71">
         <v>1.35</v>
@@ -56167,15 +56222,15 @@
       </c>
       <c r="B12" s="1">
         <f ca="1">IF(A12=sheet4!$A$7,sheet4!$B$7,B12)</f>
-        <v>308000000</v>
+        <v>218009000</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89461946.245293915</v>
+        <v>529053.75470608473</v>
       </c>
       <c r="D12" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1258464016112901</v>
+        <v>0.99811339889375084</v>
       </c>
       <c r="H12" s="71">
         <v>1.4</v>
@@ -56191,15 +56246,15 @@
       </c>
       <c r="B13" s="1">
         <f ca="1">IF(A13=sheet4!$A$7,sheet4!$B$7,B13)</f>
-        <v>318000000</v>
+        <v>218010000</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99461946.245293915</v>
+        <v>528053.75470608473</v>
       </c>
       <c r="D13" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1117793701087297</v>
+        <v>0.99810983290241362</v>
       </c>
       <c r="H13" s="71">
         <v>1.45</v>
@@ -56215,15 +56270,15 @@
       </c>
       <c r="B14" s="1">
         <f ca="1">IF(A14=sheet4!$A$7,sheet4!$B$7,B14)</f>
-        <v>328000000</v>
+        <v>218011000</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>109461946.24529392</v>
+        <v>527053.75470608473</v>
       </c>
       <c r="D14" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1005409644341557</v>
+        <v>0.99810625340490833</v>
       </c>
       <c r="H14" s="71">
         <v>1.5</v>
@@ -56239,15 +56294,15 @@
       </c>
       <c r="B15" s="1">
         <f ca="1">IF(A15=sheet4!$A$7,sheet4!$B$7,B15)</f>
-        <v>338000000</v>
+        <v>218012000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>119461946.24529392</v>
+        <v>526053.75470608473</v>
       </c>
       <c r="D15" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.091355949195266</v>
+        <v>0.9981026603243579</v>
       </c>
       <c r="H15" s="71">
         <v>1.55</v>
@@ -56263,15 +56318,15 @@
       </c>
       <c r="B16" s="1">
         <f ca="1">IF(A16=sheet4!$A$7,sheet4!$B$7,B16)</f>
-        <v>348000000</v>
+        <v>218013000</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>129461946.24529392</v>
+        <v>525053.75470608473</v>
       </c>
       <c r="D16" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0837086646777609</v>
+        <v>0.9980990535833002</v>
       </c>
       <c r="H16" s="71">
         <v>1.6</v>
@@ -56281,21 +56336,21 @@
         <v>2.0129287997907388E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <f ca="1">IF(A17=sheet4!$A$7,sheet4!$B$7,B17)</f>
-        <v>358000000</v>
+        <v>218014000</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>139461946.24529392</v>
+        <v>524053.75470608473</v>
       </c>
       <c r="D17" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0772427751167344</v>
+        <v>0.99809543310368332</v>
       </c>
       <c r="H17" s="71">
         <v>1.65</v>
@@ -56305,21 +56360,21 @@
         <v>2.174246873401128E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="41">
         <v>15</v>
       </c>
       <c r="B18" s="1">
         <f ca="1">IF(A18=sheet4!$A$7,sheet4!$B$7,B18)</f>
-        <v>368000000</v>
+        <v>218015000</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>149461946.24529392</v>
+        <v>523053.75470608473</v>
       </c>
       <c r="D18" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0717041477566318</v>
+        <v>0.99809179880685928</v>
       </c>
       <c r="H18" s="71">
         <v>1.7</v>
@@ -56329,21 +56384,21 @@
         <v>2.3358200472333557E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>16</v>
       </c>
       <c r="B19" s="1">
         <f ca="1">IF(A19=sheet4!$A$7,sheet4!$B$7,B19)</f>
-        <v>378000000</v>
+        <v>218016000</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>159461946.24529392</v>
+        <v>522053.75470608473</v>
       </c>
       <c r="D19" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0669066625399632</v>
+        <v>0.99808815061357903</v>
       </c>
       <c r="H19" s="71">
         <v>1.75</v>
@@ -56353,21 +56408,21 @@
         <v>2.4976487246909675E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>17</v>
       </c>
       <c r="B20" s="1">
         <f ca="1">IF(A20=sheet4!$A$7,sheet4!$B$7,B20)</f>
-        <v>388000000</v>
+        <v>218017000</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>169461946.24529392</v>
+        <v>521053.75470608473</v>
       </c>
       <c r="D20" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0627108864243848</v>
+        <v>0.99808448844398601</v>
       </c>
       <c r="H20" s="71">
         <v>1.8</v>
@@ -56377,21 +56432,21 @@
         <v>2.659733309815264E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="41">
         <v>18</v>
       </c>
       <c r="B21" s="1">
         <f ca="1">IF(A21=sheet4!$A$7,sheet4!$B$7,B21)</f>
-        <v>398000000</v>
+        <v>218018000</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>179461946.24529392</v>
+        <v>520053.75470608473</v>
       </c>
       <c r="D21" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0590102983092449</v>
+        <v>0.99808081221761069</v>
       </c>
       <c r="H21" s="71">
         <v>1.85</v>
@@ -56401,21 +56456,21 @@
         <v>2.8220742072841386E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="41">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <f ca="1">IF(A22=sheet4!$A$7,sheet4!$B$7,B22)</f>
-        <v>408000000</v>
+        <v>218019000</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>189461946.24529392</v>
+        <v>519053.75470608473</v>
       </c>
       <c r="D22" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0557221194198558</v>
+        <v>0.99807712185336461</v>
       </c>
       <c r="H22" s="71">
         <v>1.9</v>
@@ -56425,21 +56480,21 @@
         <v>2.9846718224176644E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="41">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <f ca="1">IF(A23=sheet4!$A$7,sheet4!$B$7,B23)</f>
-        <v>418000000</v>
+        <v>218020000</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>199461946.24529392</v>
+        <v>518053.75470608473</v>
       </c>
       <c r="D23" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0527810475833133</v>
+        <v>0.99807341726953458</v>
       </c>
       <c r="H23" s="71">
         <v>1.95</v>
@@ -56449,377 +56504,416 @@
         <v>3.1475265611769096E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>21</v>
       </c>
       <c r="B24" s="1">
         <f ca="1">IF(A24=sheet4!$A$7,sheet4!$B$7,B24)</f>
-        <v>428000000</v>
+        <v>218021000</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>209461946.24529392</v>
+        <v>517053.75470608473</v>
       </c>
       <c r="D24" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0501348762921536</v>
+        <v>0.99806969838377613</v>
       </c>
       <c r="H24" s="72">
         <v>2</v>
       </c>
       <c r="I24" s="73">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7030204182549381E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.310638830162576E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="41">
         <v>22</v>
       </c>
       <c r="B25" s="1">
         <f ca="1">IF(A25=sheet4!$A$7,sheet4!$B$7,B25)</f>
-        <v>438000000</v>
+        <v>218022000</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>219461946.24529392</v>
+        <v>516053.75470608473</v>
       </c>
       <c r="D25" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0477413686793942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.99806596511310808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <f ca="1">IF(A26=sheet4!$A$7,sheet4!$B$7,B26)</f>
-        <v>448000000</v>
+        <v>218023000</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>229461946.24529392</v>
+        <v>515053.75470608473</v>
       </c>
       <c r="D26" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0455659861360336</v>
-      </c>
-      <c r="G26" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.9980622173739061</v>
+      </c>
+      <c r="G26" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
         <v>24</v>
       </c>
       <c r="B27" s="1">
         <f ca="1">IF(A27=sheet4!$A$7,sheet4!$B$7,B27)</f>
-        <v>458000000</v>
+        <v>218024000</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>239461946.24529392</v>
+        <v>514053.75470608473</v>
       </c>
       <c r="D27" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0435802108525221</v>
-      </c>
-      <c r="G27" s="101"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.99805845508189595</v>
+      </c>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41">
         <v>25</v>
       </c>
       <c r="B28" s="1">
         <f ca="1">IF(A28=sheet4!$A$7,sheet4!$B$7,B28)</f>
-        <v>468000000</v>
+        <v>218025000</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>249461946.24529392</v>
+        <v>513053.75470608473</v>
       </c>
       <c r="D28" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0417602886671458</v>
-      </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.99805467815214821</v>
+      </c>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
         <v>26</v>
       </c>
       <c r="B29" s="1">
         <f ca="1">IF(A29=sheet4!$A$7,sheet4!$B$7,B29)</f>
-        <v>478000000</v>
+        <v>218026000</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>259461946.24529392</v>
+        <v>512053.75470608473</v>
       </c>
       <c r="D29" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0400862742815575</v>
-      </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.99805088649907092</v>
+      </c>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41">
         <v>27</v>
       </c>
       <c r="B30" s="1">
         <f ca="1">IF(A30=sheet4!$A$7,sheet4!$B$7,B30)</f>
-        <v>488000000</v>
+        <v>218027000</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>269461946.24529392</v>
+        <v>511053.75470608473</v>
       </c>
       <c r="D30" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0385412972681014</v>
-      </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.99804708003640363</v>
+      </c>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
         <v>28</v>
       </c>
       <c r="B31" s="1">
         <f ca="1">IF(A31=sheet4!$A$7,sheet4!$B$7,B31)</f>
-        <v>498000000</v>
+        <v>218028000</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>279461946.24529392</v>
+        <v>510053.75470608473</v>
       </c>
       <c r="D31" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0371109915123113</v>
-      </c>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.99804325867721078</v>
+      </c>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>29</v>
       </c>
       <c r="B32" s="1">
         <f ca="1">IF(A32=sheet4!$A$7,sheet4!$B$7,B32)</f>
-        <v>508000000</v>
+        <v>218029000</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>289461946.24529392</v>
+        <v>509053.75470608473</v>
       </c>
       <c r="D32" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0357830471531271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99803942233387488</v>
+      </c>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <f ca="1">IF(A33=sheet4!$A$7,sheet4!$B$7,B33)</f>
-        <v>518000000</v>
+        <v>218030000</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>299461946.24529392</v>
+        <v>508053.75470608473</v>
       </c>
       <c r="D33" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.034546855397448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99803557091809025</v>
+      </c>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
         <v>31</v>
       </c>
       <c r="B34" s="1">
         <f ca="1">IF(A34=sheet4!$A$7,sheet4!$B$7,B34)</f>
-        <v>528000000</v>
+        <v>218031000</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>309461946.24529392</v>
+        <v>507053.75470608473</v>
       </c>
       <c r="D34" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0333932244994122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99803170434085564</v>
+      </c>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41">
         <v>32</v>
       </c>
       <c r="B35" s="1">
         <f ca="1">IF(A35=sheet4!$A$7,sheet4!$B$7,B35)</f>
-        <v>538000000</v>
+        <v>218032000</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>319461946.24529392</v>
+        <v>506053.75470608473</v>
       </c>
       <c r="D35" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0323141508070059</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.9980278225124678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41">
         <v>33</v>
       </c>
       <c r="B36" s="1">
         <f ca="1">IF(A36=sheet4!$A$7,sheet4!$B$7,B36)</f>
-        <v>548000000</v>
+        <v>218033000</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>329461946.24529392</v>
+        <v>505053.75470608473</v>
       </c>
       <c r="D36" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0313026328097359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99802392534251461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41">
         <v>34</v>
       </c>
       <c r="B37" s="1">
         <f ca="1">IF(A37=sheet4!$A$7,sheet4!$B$7,B37)</f>
-        <v>558000000</v>
+        <v>218034000</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>339461946.24529392</v>
+        <v>504053.75470608473</v>
       </c>
       <c r="D37" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.030352519051031</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99802001273986773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="41">
         <v>35</v>
       </c>
       <c r="B38" s="1">
         <f ca="1">IF(A38=sheet4!$A$7,sheet4!$B$7,B38)</f>
-        <v>568000000</v>
+        <v>218035000</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>349461946.24529392</v>
+        <v>503053.75470608473</v>
       </c>
       <c r="D38" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0294583829221731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99801608461267566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="41">
         <v>36</v>
       </c>
       <c r="B39" s="1">
         <f ca="1">IF(A39=sheet4!$A$7,sheet4!$B$7,B39)</f>
-        <v>578000000</v>
+        <v>218036000</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>359461946.24529392</v>
+        <v>502053.75470608473</v>
       </c>
       <c r="D39" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0286154189531722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99801214086835655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="41">
         <v>37</v>
       </c>
       <c r="B40" s="1">
         <f ca="1">IF(A40=sheet4!$A$7,sheet4!$B$7,B40)</f>
-        <v>588000000</v>
+        <v>218037000</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>369461946.24529392</v>
+        <v>501053.75470608473</v>
       </c>
       <c r="D40" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0278193564143674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99800818141359104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="41">
         <v>38</v>
       </c>
       <c r="B41" s="1">
         <f ca="1">IF(A41=sheet4!$A$7,sheet4!$B$7,B41)</f>
-        <v>598000000</v>
+        <v>218038000</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>379461946.24529392</v>
+        <v>500053.75470608473</v>
       </c>
       <c r="D41" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0270663869489844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.99800420615431451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="41">
         <v>39</v>
       </c>
       <c r="B42" s="1">
         <f ca="1">IF(A42=sheet4!$A$7,sheet4!$B$7,B42)</f>
-        <v>608000000</v>
+        <v>218039000</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>389461946.24529392</v>
+        <v>499053.75470608473</v>
       </c>
       <c r="D42" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.026353103648332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.99800021499571023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>40</v>
       </c>
       <c r="B43" s="43">
         <f ca="1">IF(A43=sheet4!$A$7,sheet4!$B$7,B43)</f>
-        <v>618000000</v>
+        <v>218040000</v>
       </c>
       <c r="C43" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>399461946.24529392</v>
+        <v>498053.75470608473</v>
       </c>
       <c r="D43" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0256764495129949</v>
+        <v>0.99799620784220144</v>
       </c>
       <c r="F43">
         <v>0.99999994501005496</v>
@@ -56827,13 +56921,13 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G26:J31"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:J2"/>
+    <mergeCell ref="G26:M34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H4:I24">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>$J$4=$I4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56874,11 +56968,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56935,7 +57029,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="49">
         <v>218000000</v>
@@ -56986,27 +57080,27 @@
     <row r="7" spans="1:15" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f ca="1">IF(H5=1,0,A7+1)</f>
-        <v>300</v>
+        <v>38100</v>
       </c>
       <c r="B7" s="20">
         <f ca="1">IF(A7=0,J5,B7+INDEX(K12:K22,I5))</f>
-        <v>3218000000</v>
+        <v>256100000</v>
       </c>
       <c r="C7" s="47">
         <f ca="1">sheet1!B5/(B7+B7*sheet1!C5)^(2*sheet1!E5)</f>
-        <v>1.2291107634979392</v>
+        <v>709633.91199322825</v>
       </c>
       <c r="D7" s="47">
         <f ca="1">C7*(B7-sheet1!D5)</f>
-        <v>3955276445.7769318</v>
+        <v>181736095254528.31</v>
       </c>
       <c r="E7" s="47">
         <f ca="1">C7*sheet1!D5</f>
-        <v>1991.1594368666615</v>
+        <v>1149606937.4290297</v>
       </c>
       <c r="F7" s="48">
         <f ca="1">(E7-sheet1!G5)*(E7-sheet1!G5)</f>
-        <v>6.9695894866821386E+18</v>
+        <v>2.2212714809596762E+18</v>
       </c>
       <c r="G7" s="11" t="str">
         <f ca="1">IF(A7=0,"Исходное состояние",
@@ -57018,37 +57112,37 @@
         <f ca="1">IF($A$7=0,B7,
          IF($F$7&gt;$L$7,
                        H7,B7))</f>
-        <v>218000000</v>
+        <v>218538000</v>
       </c>
       <c r="I7" s="21">
         <f ca="1">IF($A$7=0,C7,
          IF($F$7&gt;$L$7,
                        I7,C7))</f>
-        <v>1650822.7718540637</v>
+        <v>1629631.7307094028</v>
       </c>
       <c r="J7" s="21">
         <f ca="1">IF($A$7=0,D7,
          IF($F$7&gt;$L$7,
                        J7,D7))</f>
-        <v>359876689931295.5</v>
+        <v>356133819162367.75</v>
       </c>
       <c r="K7" s="21">
         <f ca="1">IF($A$7=0,E7,
          IF($F$7&gt;$L$7,
                        K7,E7))</f>
-        <v>2674332890.403583</v>
+        <v>2640003403.7492328</v>
       </c>
       <c r="L7" s="21">
         <f ca="1">IF($A$7=0,F7,
          IF($F$7&gt;$L$7,
                        L7,F7))</f>
-        <v>1178747363464445</v>
+        <v>11585508.839575641</v>
       </c>
       <c r="M7" s="22">
         <f ca="1">IF($A$7=0,0,
          IF($F$7&gt;$L$7,
                        M7,A7))</f>
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -57086,13 +57180,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>1</v>
       </c>
@@ -57116,7 +57210,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>2</v>
       </c>
@@ -57140,7 +57234,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>3</v>
       </c>
@@ -57323,12 +57417,24 @@
       <c r="A19" s="27">
         <v>8</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D19" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F19" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G19" s="14">
+        <v>68539</v>
+      </c>
       <c r="H19" s="10">
         <v>1000</v>
       </c>
@@ -57337,13 +57443,13 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>68538000</v>
       </c>
       <c r="K19" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>9</v>
       </c>
@@ -57367,7 +57473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>10</v>
       </c>
@@ -57391,7 +57497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>11</v>
       </c>
@@ -57415,7 +57521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>12</v>
       </c>
@@ -57444,7 +57550,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>13</v>
       </c>
@@ -57469,7 +57575,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>14</v>
       </c>
@@ -57646,12 +57752,24 @@
       <c r="A30" s="27">
         <v>19</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="B30" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D30" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F30" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G30" s="14">
+        <v>51538</v>
+      </c>
       <c r="H30" s="10">
         <v>1000</v>
       </c>
@@ -57661,13 +57779,13 @@
       </c>
       <c r="J30" s="37">
         <f t="shared" si="0"/>
-        <v>167000000</v>
+        <v>51538000</v>
       </c>
       <c r="K30" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>20</v>
       </c>
@@ -57692,7 +57810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>21</v>
       </c>
@@ -57717,7 +57835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>22</v>
       </c>
@@ -57742,7 +57860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>23</v>
       </c>
@@ -57771,7 +57889,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>24</v>
       </c>
@@ -57796,7 +57914,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>25</v>
       </c>
@@ -57973,12 +58091,24 @@
       <c r="A41" s="27">
         <v>30</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D41" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E41" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F41" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G41" s="14">
+        <v>34539</v>
+      </c>
       <c r="H41" s="10">
         <v>1000</v>
       </c>
@@ -57988,13 +58118,13 @@
       </c>
       <c r="J41" s="28">
         <f t="shared" si="0"/>
-        <v>184000000</v>
+        <v>34538000</v>
       </c>
       <c r="K41" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>31</v>
       </c>
@@ -58019,7 +58149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>32</v>
       </c>
@@ -58044,7 +58174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>33</v>
       </c>
@@ -58069,7 +58199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33">
         <v>34</v>
       </c>
@@ -58098,7 +58228,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>35</v>
       </c>
@@ -58123,7 +58253,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>36</v>
       </c>
@@ -58300,12 +58430,24 @@
       <c r="A52" s="27">
         <v>41</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="B52" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D52" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F52" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G52" s="14">
+        <v>17539</v>
+      </c>
       <c r="H52" s="10">
         <v>1000</v>
       </c>
@@ -58315,13 +58457,13 @@
       </c>
       <c r="J52" s="28">
         <f t="shared" si="0"/>
-        <v>201000000</v>
+        <v>17538000</v>
       </c>
       <c r="K52" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>42</v>
       </c>
@@ -58346,7 +58488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>43</v>
       </c>
@@ -58371,7 +58513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>44</v>
       </c>
@@ -58396,7 +58538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24">
         <v>45</v>
       </c>
@@ -58425,7 +58567,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>46</v>
       </c>
@@ -58450,7 +58592,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>47</v>
       </c>
@@ -58627,12 +58769,24 @@
       <c r="A63" s="27">
         <v>52</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="B63" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D63" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E63" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F63" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G63" s="14">
+        <v>538</v>
+      </c>
       <c r="H63" s="10">
         <v>1000</v>
       </c>
@@ -58642,13 +58796,13 @@
       </c>
       <c r="J63" s="28">
         <f t="shared" si="0"/>
-        <v>218000000</v>
+        <v>538000</v>
       </c>
       <c r="K63" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>53</v>
       </c>
@@ -58673,7 +58827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>54</v>
       </c>
@@ -58698,7 +58852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>55</v>
       </c>
@@ -58723,7 +58877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I67" s="58">
         <f>sheet1!J5</f>
         <v>218538053.75470608</v>
@@ -58736,18 +58890,24 @@
       <c r="H73" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:K67"/>
+  <autoFilter ref="A11:K67">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A7:F7">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$A$7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:M7">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$A$7=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$G$7="Решение найдено"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58856,10 +59016,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58918,43 +59078,43 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="98" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="19">
         <v>220000000</v>
@@ -58974,24 +59134,23 @@
       <c r="G12" s="19">
         <v>7</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="44">
         <v>10000000.000000002</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="49">
         <v>150000000</v>
       </c>
       <c r="J12" s="25">
-        <f>ABS(I12-B12)</f>
+        <f t="shared" ref="J12:J16" si="0">ABS(I12-B12)</f>
         <v>70000000</v>
       </c>
-      <c r="K12" s="26">
-        <f>H12</f>
+      <c r="K12" s="99">
         <v>10000000.000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" s="14">
         <v>219000000</v>
@@ -59011,24 +59170,23 @@
       <c r="G13" s="14">
         <v>69</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>1000000</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="50">
         <v>150000000</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" ref="J13:J31" si="0">ABS(I13-B13)</f>
+        <f t="shared" si="0"/>
         <v>69000000</v>
       </c>
-      <c r="K13" s="29">
-        <f t="shared" ref="K13:K31" si="1">H13</f>
+      <c r="K13" s="100">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" s="14">
         <v>218500000</v>
@@ -59048,1428 +59206,1705 @@
       <c r="G14" s="14">
         <v>685</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>100000</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="50">
         <v>150000000</v>
       </c>
       <c r="J14" s="28">
         <f t="shared" si="0"/>
         <v>68500000</v>
       </c>
-      <c r="K14" s="29">
-        <f t="shared" si="1"/>
+      <c r="K14" s="100">
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>4</v>
-      </c>
-      <c r="B15" s="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14">
         <v>218540000</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1629553.5600139215</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>356119995128675.19</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>2639876767.2225528</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>15186317437.356956</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>6854</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>10000</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="50">
         <v>150000000</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="28">
         <f t="shared" si="0"/>
         <v>68540000</v>
       </c>
-      <c r="K15" s="32">
-        <f t="shared" si="1"/>
+      <c r="K15" s="100">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+    <row r="16" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15">
+        <v>218538000</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D16" s="15">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F16" s="15">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G16" s="15">
+        <v>68539</v>
+      </c>
+      <c r="H16" s="45">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="51">
+        <v>150000000</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="0"/>
+        <v>68538000</v>
+      </c>
+      <c r="K16" s="101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19">
+        <v>217000000</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1691089.7879188776</v>
+      </c>
+      <c r="D17" s="19">
+        <v>366963744412940</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2739565456.4285817</v>
+      </c>
+      <c r="F17" s="19">
+        <v>9913280113831804</v>
+      </c>
+      <c r="G17" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="19">
-        <v>217000000</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1691089.7879188776</v>
-      </c>
-      <c r="D16" s="19">
-        <v>366963744412940</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2739565456.4285817</v>
-      </c>
-      <c r="F16" s="19">
-        <v>9913280113831804</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>10000000.000000002</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>167000000</v>
       </c>
-      <c r="J16" s="25">
-        <f t="shared" si="0"/>
+      <c r="J17" s="25">
         <v>50000000</v>
       </c>
-      <c r="K16" s="26">
-        <f t="shared" si="1"/>
+      <c r="K17" s="26">
         <v>10000000.000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>6</v>
-      </c>
-      <c r="B17" s="14">
-        <v>219000000</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D17" s="14">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F17" s="14">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G17" s="14">
-        <v>52</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="I17" s="14">
-        <v>167000000</v>
-      </c>
-      <c r="J17" s="28">
-        <f t="shared" si="0"/>
-        <v>52000000</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="14">
-        <v>218500000</v>
+        <v>219000000</v>
       </c>
       <c r="C18" s="14">
-        <v>1631117.8226769154</v>
+        <v>1611692.3167207895</v>
       </c>
       <c r="D18" s="14">
-        <v>356396601844033.31</v>
+        <v>352958006420299.81</v>
       </c>
       <c r="E18" s="14">
-        <v>2642410872.7366028</v>
+        <v>2610941553.0876789</v>
       </c>
       <c r="F18" s="14">
-        <v>5812307352094.5928</v>
+        <v>844393336956183.13</v>
       </c>
       <c r="G18" s="14">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="H18" s="14">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="I18" s="14">
         <v>167000000</v>
       </c>
       <c r="J18" s="28">
-        <f t="shared" si="0"/>
+        <v>52000000</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>218500000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D19" s="14">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G19" s="14">
+        <v>515</v>
+      </c>
+      <c r="H19" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>167000000</v>
+      </c>
+      <c r="J19" s="28">
         <v>51500000</v>
       </c>
-      <c r="K18" s="29">
-        <f t="shared" si="1"/>
+      <c r="K19" s="29">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>8</v>
-      </c>
-      <c r="B19" s="15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
         <v>218540000</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C20" s="14">
         <v>1629553.5600139215</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="14">
         <v>356119995128675.19</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="14">
         <v>2639876767.2225528</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="14">
         <v>15186317437.356956</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="14">
         <v>5154</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="14">
         <v>10000</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="14">
         <v>167000000</v>
       </c>
-      <c r="J19" s="31">
-        <f t="shared" si="0"/>
+      <c r="J20" s="28">
         <v>51540000</v>
       </c>
-      <c r="K19" s="32">
-        <f t="shared" si="1"/>
+      <c r="K20" s="29">
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>9</v>
-      </c>
-      <c r="B20" s="19">
+    <row r="21" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>218538000</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D21" s="15">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F21" s="15">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G21" s="15">
+        <v>51538</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="15">
+        <v>167000000</v>
+      </c>
+      <c r="J21" s="31">
+        <v>51538000</v>
+      </c>
+      <c r="K21" s="32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19">
         <v>214000000</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C22" s="19">
         <v>1819102.5116828154</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D22" s="19">
         <v>389284990554053.56</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E22" s="19">
         <v>2946946068.9261608</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F22" s="19">
         <v>9.4215889229223472E+16</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G22" s="19">
         <v>3</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H22" s="19">
         <v>10000000.000000002</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I22" s="19">
         <v>184000000</v>
       </c>
-      <c r="J20" s="25">
-        <f t="shared" si="0"/>
+      <c r="J22" s="25">
         <v>30000000</v>
       </c>
-      <c r="K20" s="26">
-        <f t="shared" si="1"/>
+      <c r="K22" s="26">
         <v>10000000.000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14">
         <v>219000000</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C23" s="14">
         <v>1611692.3167207895</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D23" s="14">
         <v>352958006420299.81</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E23" s="14">
         <v>2610941553.0876789</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F23" s="14">
         <v>844393336956183.13</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G23" s="14">
         <v>35</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H23" s="14">
         <v>1000000</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I23" s="14">
         <v>184000000</v>
       </c>
-      <c r="J21" s="28">
-        <f t="shared" si="0"/>
+      <c r="J23" s="28">
         <v>35000000</v>
       </c>
-      <c r="K21" s="29">
-        <f t="shared" si="1"/>
+      <c r="K23" s="29">
         <v>1000000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
-        <v>11</v>
-      </c>
-      <c r="B22" s="14">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14">
         <v>218500000</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C24" s="14">
         <v>1631117.8226769154</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D24" s="14">
         <v>356396601844033.31</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E24" s="14">
         <v>2642410872.7366028</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F24" s="14">
         <v>5812307352094.5928</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G24" s="14">
         <v>345</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H24" s="14">
         <v>100000</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I24" s="14">
         <v>184000000</v>
       </c>
-      <c r="J22" s="28">
-        <f t="shared" si="0"/>
+      <c r="J24" s="28">
         <v>34500000</v>
       </c>
-      <c r="K22" s="29">
-        <f t="shared" si="1"/>
+      <c r="K24" s="29">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>12</v>
-      </c>
-      <c r="B23" s="15">
-        <v>218540000</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D23" s="15">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F23" s="15">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G23" s="15">
-        <v>3454</v>
-      </c>
-      <c r="H23" s="15">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="15">
-        <v>184000000</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" si="0"/>
-        <v>34540000</v>
-      </c>
-      <c r="K23" s="32">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>13</v>
-      </c>
-      <c r="B24" s="19">
-        <v>221000000</v>
-      </c>
-      <c r="C24" s="19">
-        <v>1536694.2496752262</v>
-      </c>
-      <c r="D24" s="19">
-        <v>339606939733540.5</v>
-      </c>
-      <c r="E24" s="19">
-        <v>2489444684.4738665</v>
-      </c>
-      <c r="F24" s="19">
-        <v>2.2666903033173628E+16</v>
-      </c>
-      <c r="G24" s="19">
-        <v>2</v>
-      </c>
-      <c r="H24" s="19">
-        <v>10000000.000000002</v>
-      </c>
-      <c r="I24" s="19">
-        <v>201000000</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="0"/>
-        <v>20000000</v>
-      </c>
-      <c r="K24" s="26">
-        <f t="shared" si="1"/>
-        <v>10000000.000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B25" s="14">
+        <v>218540000</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D25" s="14">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F25" s="14">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3454</v>
+      </c>
+      <c r="H25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="14">
+        <v>184000000</v>
+      </c>
+      <c r="J25" s="28">
+        <v>34540000</v>
+      </c>
+      <c r="K25" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>30</v>
+      </c>
+      <c r="B26" s="15">
+        <v>218538000</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D26" s="15">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F26" s="15">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G26" s="15">
+        <v>34539</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="15">
+        <v>184000000</v>
+      </c>
+      <c r="J26" s="31">
+        <v>34538000</v>
+      </c>
+      <c r="K26" s="32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>37</v>
+      </c>
+      <c r="B27" s="19">
+        <v>221000000</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1536694.2496752262</v>
+      </c>
+      <c r="D27" s="19">
+        <v>339606939733540.5</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2489444684.4738665</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2.2666903033173628E+16</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2</v>
+      </c>
+      <c r="H27" s="19">
+        <v>10000000.000000002</v>
+      </c>
+      <c r="I27" s="19">
+        <v>201000000</v>
+      </c>
+      <c r="J27" s="25">
+        <v>20000000</v>
+      </c>
+      <c r="K27" s="26">
+        <v>10000000.000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14">
         <v>219000000</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C28" s="14">
         <v>1611692.3167207895</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D28" s="14">
         <v>352958006420299.81</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E28" s="14">
         <v>2610941553.0876789</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F28" s="14">
         <v>844393336956183.13</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G28" s="14">
         <v>18</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H28" s="14">
         <v>1000000</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I28" s="14">
         <v>201000000</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" si="0"/>
+      <c r="J28" s="28">
         <v>18000000</v>
       </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
+      <c r="K28" s="29">
         <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
-        <v>15</v>
-      </c>
-      <c r="B26" s="14">
-        <v>218500000</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1631117.8226769154</v>
-      </c>
-      <c r="D26" s="14">
-        <v>356396601844033.31</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2642410872.7366028</v>
-      </c>
-      <c r="F26" s="14">
-        <v>5812307352094.5928</v>
-      </c>
-      <c r="G26" s="14">
-        <v>175</v>
-      </c>
-      <c r="H26" s="14">
-        <v>100000</v>
-      </c>
-      <c r="I26" s="14">
-        <v>201000000</v>
-      </c>
-      <c r="J26" s="28">
-        <f t="shared" si="0"/>
-        <v>17500000</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>16</v>
-      </c>
-      <c r="B27" s="15">
-        <v>218540000</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D27" s="15">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E27" s="15">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F27" s="15">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1754</v>
-      </c>
-      <c r="H27" s="15">
-        <v>10000</v>
-      </c>
-      <c r="I27" s="15">
-        <v>201000000</v>
-      </c>
-      <c r="J27" s="31">
-        <f t="shared" si="0"/>
-        <v>17540000</v>
-      </c>
-      <c r="K27" s="32">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>17</v>
-      </c>
-      <c r="B28" s="19">
-        <v>218000000</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1650822.7718540637</v>
-      </c>
-      <c r="D28" s="19">
-        <v>359876689931295.5</v>
-      </c>
-      <c r="E28" s="19">
-        <v>2674332890.403583</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1178747363464445</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
-        <v>10000000.000000002</v>
-      </c>
-      <c r="I28" s="19">
-        <v>218000000</v>
-      </c>
-      <c r="J28" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="26">
-        <f t="shared" si="1"/>
-        <v>10000000.000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B29" s="14">
-        <v>219000000</v>
+        <v>218500000</v>
       </c>
       <c r="C29" s="14">
-        <v>1611692.3167207895</v>
+        <v>1631117.8226769154</v>
       </c>
       <c r="D29" s="14">
-        <v>352958006420299.81</v>
+        <v>356396601844033.31</v>
       </c>
       <c r="E29" s="14">
-        <v>2610941553.0876789</v>
+        <v>2642410872.7366028</v>
       </c>
       <c r="F29" s="14">
-        <v>844393336956183.13</v>
+        <v>5812307352094.5928</v>
       </c>
       <c r="G29" s="14">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H29" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I29" s="14">
-        <v>218000000</v>
+        <v>201000000</v>
       </c>
       <c r="J29" s="28">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>17500000</v>
       </c>
       <c r="K29" s="29">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B30" s="14">
-        <v>218500000</v>
+        <v>218540000</v>
       </c>
       <c r="C30" s="14">
-        <v>1631117.8226769154</v>
+        <v>1629553.5600139215</v>
       </c>
       <c r="D30" s="14">
-        <v>356396601844033.31</v>
+        <v>356119995128675.19</v>
       </c>
       <c r="E30" s="14">
-        <v>2642410872.7366028</v>
+        <v>2639876767.2225528</v>
       </c>
       <c r="F30" s="14">
-        <v>5812307352094.5928</v>
+        <v>15186317437.356956</v>
       </c>
       <c r="G30" s="14">
-        <v>5</v>
+        <v>1754</v>
       </c>
       <c r="H30" s="14">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I30" s="14">
-        <v>218000000</v>
+        <v>201000000</v>
       </c>
       <c r="J30" s="28">
-        <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>17540000</v>
       </c>
       <c r="K30" s="29">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B31" s="15">
+        <v>218538000</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D31" s="15">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F31" s="15">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G31" s="15">
+        <v>17539</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="15">
+        <v>201000000</v>
+      </c>
+      <c r="J31" s="31">
+        <v>17538000</v>
+      </c>
+      <c r="K31" s="32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>48</v>
+      </c>
+      <c r="B32" s="60">
+        <v>218000000</v>
+      </c>
+      <c r="C32" s="60">
+        <v>1650822.7718540637</v>
+      </c>
+      <c r="D32" s="60">
+        <v>359876689931295.5</v>
+      </c>
+      <c r="E32" s="60">
+        <v>2674332890.403583</v>
+      </c>
+      <c r="F32" s="60">
+        <v>1178747363464445</v>
+      </c>
+      <c r="G32" s="60">
+        <v>0</v>
+      </c>
+      <c r="H32" s="60">
+        <v>10000000.000000002</v>
+      </c>
+      <c r="I32" s="60">
+        <v>218000000</v>
+      </c>
+      <c r="J32" s="60">
+        <v>0</v>
+      </c>
+      <c r="K32" s="68">
+        <v>10000000.000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="41">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1">
+        <v>219000000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1611692.3167207895</v>
+      </c>
+      <c r="D33" s="1">
+        <v>352958006420299.81</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2610941553.0876789</v>
+      </c>
+      <c r="F33" s="1">
+        <v>844393336956183.13</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>218000000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K33" s="70">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="41">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <v>218500000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D34" s="1">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>218000000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>500000</v>
+      </c>
+      <c r="K34" s="70">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="41">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1">
         <v>218540000</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C35" s="1">
         <v>1629553.5600139215</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D35" s="1">
         <v>356119995128675.19</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E35" s="1">
         <v>2639876767.2225528</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F35" s="1">
         <v>15186317437.356956</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G35" s="1">
         <v>54</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H35" s="1">
         <v>10000</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I35" s="1">
         <v>218000000</v>
       </c>
-      <c r="J31" s="31">
-        <f t="shared" si="0"/>
+      <c r="J35" s="1">
         <v>540000</v>
       </c>
-      <c r="K31" s="32">
-        <f t="shared" si="1"/>
+      <c r="K35" s="70">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="36" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42">
+        <v>52</v>
+      </c>
+      <c r="B36" s="43">
+        <v>218538000</v>
+      </c>
+      <c r="C36" s="43">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D36" s="43">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E36" s="43">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F36" s="43">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G36" s="43">
+        <v>538</v>
+      </c>
+      <c r="H36" s="43">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="43">
+        <v>218000000</v>
+      </c>
+      <c r="J36" s="43">
+        <v>538000</v>
+      </c>
+      <c r="K36" s="73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="45" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E45" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H45" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I45" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K45" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>1</v>
-      </c>
-      <c r="B35" s="19">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>4</v>
+      </c>
+      <c r="B46" s="19">
         <v>220000000</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C46" s="19">
         <v>1573661.370493084</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D46" s="19">
         <v>346202952177058.25</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E46" s="19">
         <v>2549331420.1987958</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F46" s="19">
         <v>8220791363167335</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G46" s="19">
         <v>7</v>
       </c>
-      <c r="H35" s="19">
-        <v>10000000</v>
-      </c>
-      <c r="I35" s="19">
+      <c r="H46" s="19">
+        <v>10000000.000000002</v>
+      </c>
+      <c r="I46" s="19">
         <v>150000000</v>
       </c>
-      <c r="J35" s="25">
-        <f t="shared" ref="J35:J54" si="2">ABS(I35-B35)</f>
+      <c r="J46" s="25">
         <v>70000000</v>
       </c>
-      <c r="K35" s="26">
-        <f t="shared" ref="K35:K54" si="3">H35</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="27">
-        <v>2</v>
-      </c>
-      <c r="B36" s="14">
-        <v>217000000</v>
-      </c>
-      <c r="C36" s="14">
-        <v>1691089.7879188776</v>
-      </c>
-      <c r="D36" s="14">
-        <v>366963744412940</v>
-      </c>
-      <c r="E36" s="14">
-        <v>2739565456.4285817</v>
-      </c>
-      <c r="F36" s="14">
-        <v>9913280113831804</v>
-      </c>
-      <c r="G36" s="14">
-        <v>5</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="K46" s="26">
         <v>10000000.000000002</v>
-      </c>
-      <c r="I36" s="14">
-        <v>167000000</v>
-      </c>
-      <c r="J36" s="28">
-        <f t="shared" si="2"/>
-        <v>50000000</v>
-      </c>
-      <c r="K36" s="29">
-        <f t="shared" si="3"/>
-        <v>10000000.000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="27">
-        <v>3</v>
-      </c>
-      <c r="B37" s="14">
-        <v>214000000</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1819102.5116828154</v>
-      </c>
-      <c r="D37" s="14">
-        <v>389284990554053.56</v>
-      </c>
-      <c r="E37" s="14">
-        <v>2946946068.9261608</v>
-      </c>
-      <c r="F37" s="14">
-        <v>9.4215889229223472E+16</v>
-      </c>
-      <c r="G37" s="14">
-        <v>3</v>
-      </c>
-      <c r="H37" s="14">
-        <v>10000000.000000002</v>
-      </c>
-      <c r="I37" s="14">
-        <v>184000000</v>
-      </c>
-      <c r="J37" s="28">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
-      </c>
-      <c r="K37" s="29">
-        <f t="shared" si="3"/>
-        <v>10000000.000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="27">
-        <v>4</v>
-      </c>
-      <c r="B38" s="14">
-        <v>221000000</v>
-      </c>
-      <c r="C38" s="14">
-        <v>1536694.2496752262</v>
-      </c>
-      <c r="D38" s="14">
-        <v>339606939733540.5</v>
-      </c>
-      <c r="E38" s="14">
-        <v>2489444684.4738665</v>
-      </c>
-      <c r="F38" s="14">
-        <v>2.2666903033173628E+16</v>
-      </c>
-      <c r="G38" s="14">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14">
-        <v>10000000.000000002</v>
-      </c>
-      <c r="I38" s="14">
-        <v>201000000</v>
-      </c>
-      <c r="J38" s="28">
-        <f t="shared" si="2"/>
-        <v>20000000</v>
-      </c>
-      <c r="K38" s="29">
-        <f t="shared" si="3"/>
-        <v>10000000.000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
-        <v>5</v>
-      </c>
-      <c r="B39" s="15">
-        <v>218000000</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1650822.7718540637</v>
-      </c>
-      <c r="D39" s="15">
-        <v>359876689931295.5</v>
-      </c>
-      <c r="E39" s="15">
-        <v>2674332890.403583</v>
-      </c>
-      <c r="F39" s="15">
-        <v>1178747363464445</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>10000000.000000002</v>
-      </c>
-      <c r="I39" s="15">
-        <v>218000000</v>
-      </c>
-      <c r="J39" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="32">
-        <f t="shared" si="3"/>
-        <v>10000000.000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>6</v>
-      </c>
-      <c r="B40" s="19">
-        <v>219000000</v>
-      </c>
-      <c r="C40" s="19">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D40" s="19">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E40" s="19">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F40" s="19">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G40" s="19">
-        <v>69</v>
-      </c>
-      <c r="H40" s="19">
-        <v>1000000</v>
-      </c>
-      <c r="I40" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="J40" s="25">
-        <f t="shared" si="2"/>
-        <v>69000000</v>
-      </c>
-      <c r="K40" s="26">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="27">
-        <v>7</v>
-      </c>
-      <c r="B41" s="14">
-        <v>219000000</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D41" s="14">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E41" s="14">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F41" s="14">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G41" s="14">
-        <v>52</v>
-      </c>
-      <c r="H41" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="I41" s="14">
-        <v>167000000</v>
-      </c>
-      <c r="J41" s="28">
-        <f t="shared" si="2"/>
-        <v>52000000</v>
-      </c>
-      <c r="K41" s="29">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="27">
-        <v>8</v>
-      </c>
-      <c r="B42" s="14">
-        <v>219000000</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D42" s="14">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E42" s="14">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F42" s="14">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G42" s="14">
-        <v>35</v>
-      </c>
-      <c r="H42" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="I42" s="14">
-        <v>184000000</v>
-      </c>
-      <c r="J42" s="28">
-        <f t="shared" si="2"/>
-        <v>35000000</v>
-      </c>
-      <c r="K42" s="29">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="27">
-        <v>9</v>
-      </c>
-      <c r="B43" s="14">
-        <v>219000000</v>
-      </c>
-      <c r="C43" s="14">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D43" s="14">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E43" s="14">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F43" s="14">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G43" s="14">
-        <v>18</v>
-      </c>
-      <c r="H43" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="I43" s="14">
-        <v>201000000</v>
-      </c>
-      <c r="J43" s="28">
-        <f t="shared" si="2"/>
-        <v>18000000</v>
-      </c>
-      <c r="K43" s="29">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>10</v>
-      </c>
-      <c r="B44" s="15">
-        <v>219000000</v>
-      </c>
-      <c r="C44" s="15">
-        <v>1611692.3167207895</v>
-      </c>
-      <c r="D44" s="15">
-        <v>352958006420299.81</v>
-      </c>
-      <c r="E44" s="15">
-        <v>2610941553.0876789</v>
-      </c>
-      <c r="F44" s="15">
-        <v>844393336956183.13</v>
-      </c>
-      <c r="G44" s="15">
-        <v>1</v>
-      </c>
-      <c r="H44" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="I44" s="15">
-        <v>218000000</v>
-      </c>
-      <c r="J44" s="31">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="K44" s="32">
-        <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
-        <v>11</v>
-      </c>
-      <c r="B45" s="19">
-        <v>218500000</v>
-      </c>
-      <c r="C45" s="19">
-        <v>1631117.8226769154</v>
-      </c>
-      <c r="D45" s="19">
-        <v>356396601844033.31</v>
-      </c>
-      <c r="E45" s="19">
-        <v>2642410872.7366028</v>
-      </c>
-      <c r="F45" s="19">
-        <v>5812307352094.5928</v>
-      </c>
-      <c r="G45" s="19">
-        <v>685</v>
-      </c>
-      <c r="H45" s="19">
-        <v>100000</v>
-      </c>
-      <c r="I45" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="J45" s="25">
-        <f t="shared" si="2"/>
-        <v>68500000</v>
-      </c>
-      <c r="K45" s="26">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="27">
-        <v>12</v>
-      </c>
-      <c r="B46" s="14">
-        <v>218500000</v>
-      </c>
-      <c r="C46" s="14">
-        <v>1631117.8226769154</v>
-      </c>
-      <c r="D46" s="14">
-        <v>356396601844033.31</v>
-      </c>
-      <c r="E46" s="14">
-        <v>2642410872.7366028</v>
-      </c>
-      <c r="F46" s="14">
-        <v>5812307352094.5928</v>
-      </c>
-      <c r="G46" s="14">
-        <v>515</v>
-      </c>
-      <c r="H46" s="14">
-        <v>100000</v>
-      </c>
-      <c r="I46" s="14">
-        <v>167000000</v>
-      </c>
-      <c r="J46" s="28">
-        <f t="shared" si="2"/>
-        <v>51500000</v>
-      </c>
-      <c r="K46" s="29">
-        <f t="shared" si="3"/>
-        <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" s="14">
-        <v>218500000</v>
+        <v>217000000</v>
       </c>
       <c r="C47" s="14">
-        <v>1631117.8226769154</v>
+        <v>1691089.7879188776</v>
       </c>
       <c r="D47" s="14">
-        <v>356396601844033.31</v>
+        <v>366963744412940</v>
       </c>
       <c r="E47" s="14">
-        <v>2642410872.7366028</v>
+        <v>2739565456.4285817</v>
       </c>
       <c r="F47" s="14">
-        <v>5812307352094.5928</v>
+        <v>9913280113831804</v>
       </c>
       <c r="G47" s="14">
-        <v>345</v>
+        <v>5</v>
       </c>
       <c r="H47" s="14">
-        <v>100000</v>
+        <v>10000000.000000002</v>
       </c>
       <c r="I47" s="14">
-        <v>184000000</v>
+        <v>167000000</v>
       </c>
       <c r="J47" s="28">
-        <f t="shared" si="2"/>
-        <v>34500000</v>
+        <v>50000000</v>
       </c>
       <c r="K47" s="29">
-        <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>10000000.000000002</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B48" s="14">
-        <v>218500000</v>
+        <v>214000000</v>
       </c>
       <c r="C48" s="14">
-        <v>1631117.8226769154</v>
+        <v>1819102.5116828154</v>
       </c>
       <c r="D48" s="14">
-        <v>356396601844033.31</v>
+        <v>389284990554053.56</v>
       </c>
       <c r="E48" s="14">
-        <v>2642410872.7366028</v>
+        <v>2946946068.9261608</v>
       </c>
       <c r="F48" s="14">
-        <v>5812307352094.5928</v>
+        <v>9.4215889229223472E+16</v>
       </c>
       <c r="G48" s="14">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="H48" s="14">
-        <v>100000</v>
+        <v>10000000.000000002</v>
       </c>
       <c r="I48" s="14">
+        <v>184000000</v>
+      </c>
+      <c r="J48" s="28">
+        <v>30000000</v>
+      </c>
+      <c r="K48" s="29">
+        <v>10000000.000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
+        <v>37</v>
+      </c>
+      <c r="B49" s="14">
+        <v>221000000</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1536694.2496752262</v>
+      </c>
+      <c r="D49" s="14">
+        <v>339606939733540.5</v>
+      </c>
+      <c r="E49" s="14">
+        <v>2489444684.4738665</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2.2666903033173628E+16</v>
+      </c>
+      <c r="G49" s="14">
+        <v>2</v>
+      </c>
+      <c r="H49" s="14">
+        <v>10000000.000000002</v>
+      </c>
+      <c r="I49" s="14">
         <v>201000000</v>
       </c>
-      <c r="J48" s="28">
-        <f t="shared" si="2"/>
-        <v>17500000</v>
-      </c>
-      <c r="K48" s="29">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
-        <v>15</v>
-      </c>
-      <c r="B49" s="15">
-        <v>218500000</v>
-      </c>
-      <c r="C49" s="15">
-        <v>1631117.8226769154</v>
-      </c>
-      <c r="D49" s="15">
-        <v>356396601844033.31</v>
-      </c>
-      <c r="E49" s="15">
-        <v>2642410872.7366028</v>
-      </c>
-      <c r="F49" s="15">
-        <v>5812307352094.5928</v>
-      </c>
-      <c r="G49" s="15">
+      <c r="J49" s="28">
+        <v>20000000</v>
+      </c>
+      <c r="K49" s="29">
+        <v>10000000.000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>48</v>
+      </c>
+      <c r="B50" s="15">
+        <v>218000000</v>
+      </c>
+      <c r="C50" s="15">
+        <v>1650822.7718540637</v>
+      </c>
+      <c r="D50" s="15">
+        <v>359876689931295.5</v>
+      </c>
+      <c r="E50" s="15">
+        <v>2674332890.403583</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1178747363464445</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>10000000.000000002</v>
+      </c>
+      <c r="I50" s="15">
+        <v>218000000</v>
+      </c>
+      <c r="J50" s="31">
+        <v>0</v>
+      </c>
+      <c r="K50" s="32">
+        <v>10000000.000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
         <v>5</v>
       </c>
-      <c r="H49" s="15">
-        <v>100000</v>
-      </c>
-      <c r="I49" s="15">
-        <v>218000000</v>
-      </c>
-      <c r="J49" s="31">
-        <f t="shared" si="2"/>
-        <v>500000</v>
-      </c>
-      <c r="K49" s="32">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
-        <v>16</v>
-      </c>
-      <c r="B50" s="34">
-        <v>218540000</v>
-      </c>
-      <c r="C50" s="34">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D50" s="34">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E50" s="34">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F50" s="34">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G50" s="34">
-        <v>6854</v>
-      </c>
-      <c r="H50" s="34">
-        <v>10000</v>
-      </c>
-      <c r="I50" s="34">
+      <c r="B51" s="19">
+        <v>219000000</v>
+      </c>
+      <c r="C51" s="19">
+        <v>1611692.3167207895</v>
+      </c>
+      <c r="D51" s="19">
+        <v>352958006420299.81</v>
+      </c>
+      <c r="E51" s="19">
+        <v>2610941553.0876789</v>
+      </c>
+      <c r="F51" s="19">
+        <v>844393336956183.13</v>
+      </c>
+      <c r="G51" s="19">
+        <v>69</v>
+      </c>
+      <c r="H51" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="I51" s="19">
         <v>150000000</v>
       </c>
-      <c r="J50" s="35">
-        <f t="shared" si="2"/>
-        <v>68540000</v>
-      </c>
-      <c r="K50" s="36">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
-        <v>17</v>
-      </c>
-      <c r="B51" s="14">
-        <v>218540000</v>
-      </c>
-      <c r="C51" s="14">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D51" s="14">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E51" s="14">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F51" s="14">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G51" s="14">
-        <v>5154</v>
-      </c>
-      <c r="H51" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I51" s="14">
-        <v>167000000</v>
-      </c>
-      <c r="J51" s="28">
-        <f t="shared" si="2"/>
-        <v>51540000</v>
-      </c>
-      <c r="K51" s="29">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+      <c r="J51" s="25">
+        <v>69000000</v>
+      </c>
+      <c r="K51" s="26">
+        <v>1000000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="14">
-        <v>218540000</v>
+        <v>219000000</v>
       </c>
       <c r="C52" s="14">
-        <v>1629553.5600139215</v>
+        <v>1611692.3167207895</v>
       </c>
       <c r="D52" s="14">
-        <v>356119995128675.19</v>
+        <v>352958006420299.81</v>
       </c>
       <c r="E52" s="14">
-        <v>2639876767.2225528</v>
+        <v>2610941553.0876789</v>
       </c>
       <c r="F52" s="14">
-        <v>15186317437.356956</v>
+        <v>844393336956183.13</v>
       </c>
       <c r="G52" s="14">
-        <v>3454</v>
+        <v>52</v>
       </c>
       <c r="H52" s="14">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="I52" s="14">
-        <v>184000000</v>
+        <v>167000000</v>
       </c>
       <c r="J52" s="28">
-        <f t="shared" si="2"/>
-        <v>34540000</v>
+        <v>52000000</v>
       </c>
       <c r="K52" s="29">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
+        <v>27</v>
+      </c>
+      <c r="B53" s="14">
+        <v>219000000</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1611692.3167207895</v>
+      </c>
+      <c r="D53" s="14">
+        <v>352958006420299.81</v>
+      </c>
+      <c r="E53" s="14">
+        <v>2610941553.0876789</v>
+      </c>
+      <c r="F53" s="14">
+        <v>844393336956183.13</v>
+      </c>
+      <c r="G53" s="14">
+        <v>35</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="I53" s="14">
+        <v>184000000</v>
+      </c>
+      <c r="J53" s="28">
+        <v>35000000</v>
+      </c>
+      <c r="K53" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>38</v>
+      </c>
+      <c r="B54" s="14">
+        <v>219000000</v>
+      </c>
+      <c r="C54" s="14">
+        <v>1611692.3167207895</v>
+      </c>
+      <c r="D54" s="14">
+        <v>352958006420299.81</v>
+      </c>
+      <c r="E54" s="14">
+        <v>2610941553.0876789</v>
+      </c>
+      <c r="F54" s="14">
+        <v>844393336956183.13</v>
+      </c>
+      <c r="G54" s="14">
+        <v>18</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="I54" s="14">
+        <v>201000000</v>
+      </c>
+      <c r="J54" s="28">
+        <v>18000000</v>
+      </c>
+      <c r="K54" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>49</v>
+      </c>
+      <c r="B55" s="15">
+        <v>219000000</v>
+      </c>
+      <c r="C55" s="15">
+        <v>1611692.3167207895</v>
+      </c>
+      <c r="D55" s="15">
+        <v>352958006420299.81</v>
+      </c>
+      <c r="E55" s="15">
+        <v>2610941553.0876789</v>
+      </c>
+      <c r="F55" s="15">
+        <v>844393336956183.13</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="I55" s="15">
+        <v>218000000</v>
+      </c>
+      <c r="J55" s="31">
+        <v>1000000</v>
+      </c>
+      <c r="K55" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>6</v>
+      </c>
+      <c r="B56" s="19">
+        <v>218500000</v>
+      </c>
+      <c r="C56" s="19">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D56" s="19">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E56" s="19">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F56" s="19">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G56" s="19">
+        <v>685</v>
+      </c>
+      <c r="H56" s="19">
+        <v>100000</v>
+      </c>
+      <c r="I56" s="19">
+        <v>150000000</v>
+      </c>
+      <c r="J56" s="25">
+        <v>68500000</v>
+      </c>
+      <c r="K56" s="26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>17</v>
+      </c>
+      <c r="B57" s="14">
+        <v>218500000</v>
+      </c>
+      <c r="C57" s="14">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D57" s="14">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E57" s="14">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F57" s="14">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G57" s="14">
+        <v>515</v>
+      </c>
+      <c r="H57" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I57" s="14">
+        <v>167000000</v>
+      </c>
+      <c r="J57" s="28">
+        <v>51500000</v>
+      </c>
+      <c r="K57" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
+        <v>28</v>
+      </c>
+      <c r="B58" s="14">
+        <v>218500000</v>
+      </c>
+      <c r="C58" s="14">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D58" s="14">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E58" s="14">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F58" s="14">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G58" s="14">
+        <v>345</v>
+      </c>
+      <c r="H58" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I58" s="14">
+        <v>184000000</v>
+      </c>
+      <c r="J58" s="28">
+        <v>34500000</v>
+      </c>
+      <c r="K58" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
+        <v>39</v>
+      </c>
+      <c r="B59" s="14">
+        <v>218500000</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D59" s="14">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E59" s="14">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F59" s="14">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G59" s="14">
+        <v>175</v>
+      </c>
+      <c r="H59" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I59" s="14">
+        <v>201000000</v>
+      </c>
+      <c r="J59" s="28">
+        <v>17500000</v>
+      </c>
+      <c r="K59" s="29">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>50</v>
+      </c>
+      <c r="B60" s="15">
+        <v>218500000</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1631117.8226769154</v>
+      </c>
+      <c r="D60" s="15">
+        <v>356396601844033.31</v>
+      </c>
+      <c r="E60" s="15">
+        <v>2642410872.7366028</v>
+      </c>
+      <c r="F60" s="15">
+        <v>5812307352094.5928</v>
+      </c>
+      <c r="G60" s="15">
+        <v>5</v>
+      </c>
+      <c r="H60" s="15">
+        <v>100000</v>
+      </c>
+      <c r="I60" s="15">
+        <v>218000000</v>
+      </c>
+      <c r="J60" s="31">
+        <v>500000</v>
+      </c>
+      <c r="K60" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>7</v>
+      </c>
+      <c r="B61" s="34">
+        <v>218540000</v>
+      </c>
+      <c r="C61" s="34">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D61" s="34">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E61" s="34">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F61" s="34">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G61" s="34">
+        <v>6854</v>
+      </c>
+      <c r="H61" s="34">
+        <v>10000</v>
+      </c>
+      <c r="I61" s="34">
+        <v>150000000</v>
+      </c>
+      <c r="J61" s="35">
+        <v>68540000</v>
+      </c>
+      <c r="K61" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="27">
+        <v>18</v>
+      </c>
+      <c r="B62" s="14">
+        <v>218540000</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D62" s="14">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E62" s="14">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F62" s="14">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G62" s="14">
+        <v>5154</v>
+      </c>
+      <c r="H62" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="14">
+        <v>167000000</v>
+      </c>
+      <c r="J62" s="28">
+        <v>51540000</v>
+      </c>
+      <c r="K62" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="27">
+        <v>29</v>
+      </c>
+      <c r="B63" s="14">
+        <v>218540000</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D63" s="14">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E63" s="14">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F63" s="14">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G63" s="14">
+        <v>3454</v>
+      </c>
+      <c r="H63" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I63" s="14">
+        <v>184000000</v>
+      </c>
+      <c r="J63" s="28">
+        <v>34540000</v>
+      </c>
+      <c r="K63" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="27">
+        <v>40</v>
+      </c>
+      <c r="B64" s="14">
+        <v>218540000</v>
+      </c>
+      <c r="C64" s="14">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D64" s="14">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E64" s="14">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F64" s="14">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G64" s="14">
+        <v>1754</v>
+      </c>
+      <c r="H64" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I64" s="14">
+        <v>201000000</v>
+      </c>
+      <c r="J64" s="28">
+        <v>17540000</v>
+      </c>
+      <c r="K64" s="29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>51</v>
+      </c>
+      <c r="B65" s="15">
+        <v>218540000</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1629553.5600139215</v>
+      </c>
+      <c r="D65" s="15">
+        <v>356119995128675.19</v>
+      </c>
+      <c r="E65" s="15">
+        <v>2639876767.2225528</v>
+      </c>
+      <c r="F65" s="15">
+        <v>15186317437.356956</v>
+      </c>
+      <c r="G65" s="15">
+        <v>54</v>
+      </c>
+      <c r="H65" s="15">
+        <v>10000</v>
+      </c>
+      <c r="I65" s="15">
+        <v>218000000</v>
+      </c>
+      <c r="J65" s="31">
+        <v>540000</v>
+      </c>
+      <c r="K65" s="32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="27">
+        <v>8</v>
+      </c>
+      <c r="B66" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D66" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F66" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G66" s="14">
+        <v>68539</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="50">
+        <v>150000000</v>
+      </c>
+      <c r="J66" s="28">
+        <v>68538000</v>
+      </c>
+      <c r="K66" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
         <v>19</v>
       </c>
-      <c r="B53" s="14">
-        <v>218540000</v>
-      </c>
-      <c r="C53" s="14">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D53" s="14">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E53" s="14">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F53" s="14">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G53" s="14">
-        <v>1754</v>
-      </c>
-      <c r="H53" s="14">
-        <v>10000</v>
-      </c>
-      <c r="I53" s="14">
+      <c r="B67" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D67" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E67" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F67" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G67" s="14">
+        <v>51538</v>
+      </c>
+      <c r="H67" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I67" s="52">
+        <v>167000000</v>
+      </c>
+      <c r="J67" s="37">
+        <v>51538000</v>
+      </c>
+      <c r="K67" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="27">
+        <v>30</v>
+      </c>
+      <c r="B68" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C68" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D68" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E68" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F68" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G68" s="14">
+        <v>34539</v>
+      </c>
+      <c r="H68" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I68" s="52">
+        <v>184000000</v>
+      </c>
+      <c r="J68" s="28">
+        <v>34538000</v>
+      </c>
+      <c r="K68" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
+        <v>41</v>
+      </c>
+      <c r="B69" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C69" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D69" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E69" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F69" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G69" s="14">
+        <v>17539</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="52">
         <v>201000000</v>
       </c>
-      <c r="J53" s="28">
-        <f t="shared" si="2"/>
-        <v>17540000</v>
-      </c>
-      <c r="K53" s="29">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
-        <v>20</v>
-      </c>
-      <c r="B54" s="15">
-        <v>218540000</v>
-      </c>
-      <c r="C54" s="15">
-        <v>1629553.5600139215</v>
-      </c>
-      <c r="D54" s="15">
-        <v>356119995128675.19</v>
-      </c>
-      <c r="E54" s="15">
-        <v>2639876767.2225528</v>
-      </c>
-      <c r="F54" s="15">
-        <v>15186317437.356956</v>
-      </c>
-      <c r="G54" s="15">
-        <v>54</v>
-      </c>
-      <c r="H54" s="15">
-        <v>10000</v>
-      </c>
-      <c r="I54" s="15">
+      <c r="J69" s="28">
+        <v>17538000</v>
+      </c>
+      <c r="K69" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
+        <v>52</v>
+      </c>
+      <c r="B70" s="14">
+        <v>218538000</v>
+      </c>
+      <c r="C70" s="14">
+        <v>1629631.7307094028</v>
+      </c>
+      <c r="D70" s="14">
+        <v>356133819162367.75</v>
+      </c>
+      <c r="E70" s="14">
+        <v>2640003403.7492328</v>
+      </c>
+      <c r="F70" s="14">
+        <v>11585508.839575641</v>
+      </c>
+      <c r="G70" s="14">
+        <v>538</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I70" s="52">
         <v>218000000</v>
       </c>
-      <c r="J54" s="31">
-        <f t="shared" si="2"/>
-        <v>540000</v>
-      </c>
-      <c r="K54" s="32">
-        <f t="shared" si="3"/>
-        <v>10000</v>
+      <c r="J70" s="28">
+        <v>538000</v>
+      </c>
+      <c r="K70" s="10">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
